--- a/reports/2026-02-14.xlsx
+++ b/reports/2026-02-14.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-14 05:14 UTC</t>
+          <t>2026-02-14 10:33 UTC</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -666,40 +666,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Compound</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$1.46</t>
+          <t>$19.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$246.03M</t>
+          <t>$198.08M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$2.44M</t>
+          <t>$7.42M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>65.19</v>
+        <v>56.63</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>78.75</v>
       </c>
       <c r="I2" t="n">
-        <v>75.63</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.13</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -712,43 +712,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$20.16</t>
+          <t>$0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$200.35M</t>
+          <t>$150.75M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$6.91M</t>
+          <t>$2.92M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>56.63</v>
+        <v>53.85</v>
       </c>
       <c r="H3" t="n">
-        <v>78.75</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -758,34 +758,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$147.47M</t>
+          <t>$1.77B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$3.07M</t>
+          <t>$5.94M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>53.85</v>
+        <v>50.83</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>86.91</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -804,31 +804,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>DEEPUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Creditcoin</t>
+          <t>DeepBook Protocol</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.20</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$102.90M</t>
+          <t>$142.74M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$1.66M</t>
+          <t>$2.46M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>51.04</v>
+        <v>48.89</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15.88</v>
+        <v>8.9</v>
       </c>
       <c r="K5" t="n">
         <v>100</v>
@@ -850,34 +850,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.72</t>
+          <t>$0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.78B</t>
+          <t>$508.52M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$6.12M</t>
+          <t>$9.16M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50.83</v>
+        <v>47.01</v>
       </c>
       <c r="H6" t="n">
-        <v>86.91</v>
+        <v>57.68</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -886,9 +886,13 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>overextended</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -896,31 +900,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENSUSDT</t>
+          <t>PENDLEUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>Pendle</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$6.67</t>
+          <t>$1.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$255.78M</t>
+          <t>$210.78M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$1.69M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>49.78</v>
+        <v>46.15</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -929,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.78</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>100</v>
@@ -942,31 +946,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEEPUSDT</t>
+          <t>BONKUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DeepBook Protocol</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$138.31M</t>
+          <t>$562.36M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$2.70M</t>
+          <t>$1.48M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>48.89</v>
+        <v>46.15</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -975,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>100</v>
@@ -988,49 +992,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.23</t>
+          <t>$16.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$540.57M</t>
+          <t>$332.07M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$10.46M</t>
+          <t>$1.83M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>47.01</v>
+        <v>44.62</v>
       </c>
       <c r="H9" t="n">
-        <v>57.68</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>overextended</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1038,31 +1038,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>ENSUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.34</t>
+          <t>$6.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$300.49M</t>
+          <t>$265.00M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.55M</t>
+          <t>$3.14M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>46.15</v>
+        <v>44.04</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.78</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>75.14</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1084,43 +1084,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BSVUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$16.62</t>
+          <t>$1.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$332.05M</t>
+          <t>$554.21M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.93M</t>
+          <t>$3.96M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>44.62</v>
+        <v>43.58</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.52</v>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1237,17 +1237,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$20.16</t>
+          <t>$19.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$200.35M</t>
+          <t>$198.08M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$6.91M</t>
+          <t>$7.42M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$332.05M</t>
+          <t>$332.07M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.93M</t>
+          <t>$1.83M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1319,49 +1319,45 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>ENSUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.23</t>
+          <t>$6.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$540.57M</t>
+          <t>$265.00M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$10.46M</t>
+          <t>$3.14M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>51.65</v>
+        <v>42.46</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>overextended</t>
-        </is>
-      </c>
+        <v>58.89</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1369,43 +1365,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>DEEPUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>DeepBook Protocol</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.61</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$611.38M</t>
+          <t>$142.74M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$4.95M</t>
+          <t>$2.46M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>51.3</v>
+        <v>40.58</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>44.48</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1415,31 +1411,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Creditcoin</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.20</t>
+          <t>$0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$102.90M</t>
+          <t>$508.52M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$1.66M</t>
+          <t>$9.16M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>45.14</v>
+        <v>39.13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1448,12 +1444,16 @@
         <v>100</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>79.41</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>overextended_breakout_zone, overextended</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1461,45 +1461,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENSUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$6.67</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$255.78M</t>
+          <t>$629.99M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$5.68M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>42.46</v>
+        <v>39.06</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>58.89</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>overextended_breakout_zone, overextended</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1507,31 +1511,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEEPUSDT</t>
+          <t>PENDLEUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DeepBook Protocol</t>
+          <t>Pendle</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$1.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$138.31M</t>
+          <t>$210.78M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$2.70M</t>
+          <t>$1.69M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40.58</v>
+        <v>34.78</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1543,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.48</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1553,31 +1557,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>BONKUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$1.46</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$246.03M</t>
+          <t>$562.36M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.44M</t>
+          <t>$1.48M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>38.13</v>
+        <v>34.78</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1589,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.67</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1599,43 +1603,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ETCUSDT</t>
+          <t>TAOUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$8.67</t>
+          <t>$198.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$1.34B</t>
+          <t>$2.12B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$3.24M</t>
+          <t>$12.31M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>34.78</v>
+        <v>30.86</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>78.20999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>28.05</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1645,43 +1649,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.34</t>
+          <t>$0.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$300.49M</t>
+          <t>$1.77B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.55M</t>
+          <t>$5.94M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>34.78</v>
+        <v>30.76</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1798,21 +1802,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.23</t>
+          <t>$0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$540.57M</t>
+          <t>$508.52M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$10.46M</t>
+          <t>$9.16M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>73.33</v>
+        <v>66.67</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -1821,7 +1825,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -1844,17 +1848,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.61</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$611.38M</t>
+          <t>$629.99M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$4.95M</t>
+          <t>$5.68M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1890,21 +1894,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$147.47M</t>
+          <t>$150.75M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$3.07M</t>
+          <t>$2.92M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>53.33</v>
+        <v>48</v>
       </c>
       <c r="H4" t="n">
         <v>90</v>
@@ -1913,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1936,21 +1940,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$1.81</t>
+          <t>$1.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$540.14M</t>
+          <t>$554.21M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$3.90M</t>
+          <t>$3.96M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>53.3</v>
+        <v>47.33</v>
       </c>
       <c r="H5" t="n">
         <v>80</v>
@@ -1962,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="K5" t="n">
-        <v>35.81</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1987,12 +1991,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.78B</t>
+          <t>$1.77B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$6.12M</t>
+          <t>$5.94M</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -2033,16 +2037,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$414.91M</t>
+          <t>$421.83M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.79M</t>
+          <t>$1.52M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>31.33</v>
+        <v>35.33</v>
       </c>
       <c r="H7" t="n">
         <v>60</v>
@@ -2051,7 +2055,7 @@
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2074,21 +2078,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$20.16</t>
+          <t>$19.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$200.35M</t>
+          <t>$198.08M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$6.91M</t>
+          <t>$7.42M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>18.67</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2097,7 +2101,7 @@
         <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
         <v>100</v>
@@ -2114,31 +2118,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>ENSUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Creditcoin</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.20</t>
+          <t>$6.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$102.90M</t>
+          <t>$265.00M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.66M</t>
+          <t>$3.14M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.99</v>
+        <v>17.65</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2147,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>95.88</v>
+        <v>91.78</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
@@ -2164,43 +2168,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSUSDT</t>
+          <t>BDXUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>Beldex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$6.67</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$255.78M</t>
+          <t>$613.84M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$1.39M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>17.65</v>
+        <v>16.69</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>91.78</v>
+        <v>0.32</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2214,43 +2218,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BDXUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Beldex</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.08</t>
+          <t>$16.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$611.17M</t>
+          <t>$332.07M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.39M</t>
+          <t>$1.83M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16.69</v>
+        <v>16.67</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>0.32</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
